--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C7BB89-0C7E-43F5-AA02-23879102258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651465A3-BEB7-4902-8E6D-96259CFC4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -365,22 +365,25 @@
     <t>142541545</t>
   </si>
   <si>
-    <t>Reza Shah</t>
-  </si>
-  <si>
-    <t>reza.shah1011@yopmail.com</t>
-  </si>
-  <si>
-    <t>The Export Bureau</t>
-  </si>
-  <si>
-    <t>Shaan Ahmed Ali</t>
-  </si>
-  <si>
-    <t>shaanahmed103@yopmail.com</t>
-  </si>
-  <si>
-    <t>The Trading Establishment</t>
+    <t>Jeddah, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Star Export Bureau</t>
+  </si>
+  <si>
+    <t>Majid Ahmed</t>
+  </si>
+  <si>
+    <t>majidahmed103@yopmail.com</t>
+  </si>
+  <si>
+    <t>The SA Establishment</t>
+  </si>
+  <si>
+    <t>Riaz Shah</t>
+  </si>
+  <si>
+    <t>riaz.shah1011@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,10 +1261,10 @@
         <v>105</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>28</v>
@@ -1270,25 +1273,25 @@
         <v>109</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>111</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>113</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651465A3-BEB7-4902-8E6D-96259CFC4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A22D6-4F7C-4033-80CA-58DDD6ACCE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,22 +368,22 @@
     <t>Jeddah, Saudi Arabia</t>
   </si>
   <si>
-    <t>Star Export Bureau</t>
-  </si>
-  <si>
-    <t>Majid Ahmed</t>
-  </si>
-  <si>
-    <t>majidahmed103@yopmail.com</t>
-  </si>
-  <si>
-    <t>The SA Establishment</t>
-  </si>
-  <si>
-    <t>Riaz Shah</t>
-  </si>
-  <si>
-    <t>riaz.shah1011@yopmail.com</t>
+    <t>Karachi Export Bureau</t>
+  </si>
+  <si>
+    <t>Majid Khan Ahmad</t>
+  </si>
+  <si>
+    <t>majidkhanahmed1013@yopmail.com</t>
+  </si>
+  <si>
+    <t>The SET Establishment</t>
+  </si>
+  <si>
+    <t>Ahmad Shah</t>
+  </si>
+  <si>
+    <t>ahmad.shah13011@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A22D6-4F7C-4033-80CA-58DDD6ACCE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C137120E-C0CE-4ACB-B0B5-B575AA4A01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="TestData2" sheetId="2" r:id="rId2"/>
     <sheet name="TestData3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -127,21 +127,6 @@
     <t>TestCase_SpotRateandBooking_001</t>
   </si>
   <si>
-    <t>TestCase_SpotRateandBooking_002</t>
-  </si>
-  <si>
-    <t>TestCase_SpotRateandBooking_003</t>
-  </si>
-  <si>
-    <t>TestCase_SpotRateandBooking_004</t>
-  </si>
-  <si>
-    <t>TestCase_SpotRateandBooking_005</t>
-  </si>
-  <si>
-    <t>TestCase_SpotRateandBooking_006</t>
-  </si>
-  <si>
     <t>Sea Shipment - FCL</t>
   </si>
   <si>
@@ -196,81 +181,15 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Standard 20'</t>
   </si>
   <si>
-    <t>Standard 40'</t>
-  </si>
-  <si>
-    <t>Standard 40'HC</t>
-  </si>
-  <si>
-    <t>Standard 45'HC</t>
-  </si>
-  <si>
-    <t>Flat Rack 20'</t>
-  </si>
-  <si>
-    <t>Open Top 20'</t>
-  </si>
-  <si>
-    <t>costa@gmail.com</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>123457</t>
-  </si>
-  <si>
-    <t>123458</t>
-  </si>
-  <si>
-    <t>123459</t>
-  </si>
-  <si>
-    <t>123460</t>
-  </si>
-  <si>
-    <t>123461</t>
-  </si>
-  <si>
     <t>Shipping Line</t>
   </si>
   <si>
@@ -314,21 +233,6 @@
   </si>
   <si>
     <t>5102055</t>
-  </si>
-  <si>
-    <t>5102056</t>
-  </si>
-  <si>
-    <t>5102057</t>
-  </si>
-  <si>
-    <t>5102058</t>
-  </si>
-  <si>
-    <t>5102059</t>
-  </si>
-  <si>
-    <t>5102060</t>
   </si>
   <si>
     <t>Shipping Instructions (Optional)</t>
@@ -359,31 +263,145 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Jeddah Saudi Arabia</t>
-  </si>
-  <si>
     <t>142541545</t>
   </si>
   <si>
     <t>Jeddah, Saudi Arabia</t>
   </si>
   <si>
-    <t>Karachi Export Bureau</t>
-  </si>
-  <si>
-    <t>Majid Khan Ahmad</t>
-  </si>
-  <si>
-    <t>majidkhanahmed1013@yopmail.com</t>
-  </si>
-  <si>
-    <t>The SET Establishment</t>
-  </si>
-  <si>
-    <t>Ahmad Shah</t>
-  </si>
-  <si>
-    <t>ahmad.shah13011@yopmail.com</t>
+    <t>Cargo Readiness Month Year</t>
+  </si>
+  <si>
+    <t>Cargo Readiness Day</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Shipment Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipment booking has confirmed </t>
+  </si>
+  <si>
+    <t>The Market A Company</t>
+  </si>
+  <si>
+    <t>Waseem Aslam Najam</t>
+  </si>
+  <si>
+    <t>waslamnajamahmed123@yopmail.com</t>
+  </si>
+  <si>
+    <t>BZSA Y M Ali Shah</t>
+  </si>
+  <si>
+    <t>bswkaym.shah11051@yopmail.com</t>
+  </si>
+  <si>
+    <t>Latest Starss Trading Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Departure Date Month Year</t>
+  </si>
+  <si>
+    <t>Departure Date Day</t>
+  </si>
+  <si>
+    <t>Arrival Date Month Year</t>
+  </si>
+  <si>
+    <t>Arrival Date Day</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Voyage Number</t>
+  </si>
+  <si>
+    <t>25488</t>
+  </si>
+  <si>
+    <t>Via Route</t>
+  </si>
+  <si>
+    <t>SG SIN, Singapore, Singapore, Singapore (SG)</t>
+  </si>
+  <si>
+    <t>TestCase_SpotRateandBooking_002</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Atco Laboratories</t>
+  </si>
+  <si>
+    <t>7500</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>CMA CGM OKAPI</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>BL Number</t>
+  </si>
+  <si>
+    <t>BL87882347882</t>
+  </si>
+  <si>
+    <t>BL87882341012</t>
+  </si>
+  <si>
+    <t>BL Date Month Year</t>
+  </si>
+  <si>
+    <t>BL Date Day</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>In-Transit Shipment Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In-Transit Shipment booking has confirmed </t>
+  </si>
+  <si>
+    <t>Shipment Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>acme@hashmove.com</t>
+  </si>
+  <si>
+    <t>123456-7</t>
+  </si>
+  <si>
+    <t>costa@hashmove.com</t>
+  </si>
+  <si>
+    <t>ACME Enterprise</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Days after the issuance of BL</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -463,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,6 +490,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1086,46 +1106,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="35.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1139,442 +1163,286 @@
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="X1" s="3" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>112</v>
+      <c r="AD1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="U3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0D15CC7F-6191-4BB9-8A1D-A47C7FB91198}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{10233453-EE73-42A6-BE8D-BEE9E119662E}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{273B771A-C7DA-4746-901B-C6446ADAB3B8}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{7C2A14C3-F6D3-46DD-AF82-02F45E423A44}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{21516A3F-57A6-4B67-9B72-27C99487AAED}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{9065240C-B1D8-4B68-8164-4A17F095D48A}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{0CB6867B-D668-4682-80E7-3577E0FAB52C}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{8925338B-0116-4DD7-BD6B-6C0BB5B1D127}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{27760469-1E33-46D1-B1EB-7F372F29A36D}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{A2BD81B6-F22C-46A1-A149-E1EA2E5DA83F}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{FB5DD62D-4E0D-471B-9011-8F87595263E8}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{FD7D336C-C8A0-4321-89E5-2C88D8912E39}"/>
-    <hyperlink ref="U2" r:id="rId13" xr:uid="{CC15B00C-2C71-47DE-90B4-6542C1C31BE6}"/>
-    <hyperlink ref="AA2" r:id="rId14" xr:uid="{74BBBF49-AB91-4DE9-A06C-1F2BF203A76D}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Hsm@1234" xr:uid="{10233453-EE73-42A6-BE8D-BEE9E119662E}"/>
+    <hyperlink ref="Y2" r:id="rId3" xr:uid="{F71055CB-B010-4548-868A-D5BC13A7F27E}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{1F911404-01FB-401A-805B-B8D17FF5CA02}"/>
+    <hyperlink ref="C3" r:id="rId5" display="Hsm@1234" xr:uid="{81A24D70-F61E-491E-91F1-652234783DA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2433DC77-5512-4F48-8DCB-430F8C18169B}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,10 +1457,23 @@
     <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" customWidth="1"/>
+    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1603,151 +1484,214 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>96</v>
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{89DFA509-1161-42A0-854B-87822CB41FF1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8B4E6728-2530-4836-9BEE-6400D7B3DD04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,21 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C137120E-C0CE-4ACB-B0B5-B575AA4A01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF1191-DAFD-4FF5-BD80-A7D2E1E0B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData1" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData2" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData3" sheetId="3" r:id="rId3"/>
+    <sheet name="QACustomerTestData" sheetId="4" r:id="rId2"/>
+    <sheet name="QAProviderTestData" sheetId="5" r:id="rId3"/>
+    <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId4"/>
+    <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId5"/>
+    <sheet name="PreHubCustomerTestData" sheetId="2" r:id="rId6"/>
+    <sheet name="PreHubProviderTestData" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="153">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -402,6 +406,81 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>TestCase_SpotRateandBooking_003</t>
+  </si>
+  <si>
+    <t>Sea Shipment - LCL</t>
+  </si>
+  <si>
+    <t>costa@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Advance Payment at the time of Booking Confirmation</t>
+  </si>
+  <si>
+    <t>Super Star</t>
+  </si>
+  <si>
+    <t>Waseem Alam</t>
+  </si>
+  <si>
+    <t>M Ali Shah</t>
+  </si>
+  <si>
+    <t>2523.1000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Package Type</t>
+  </si>
+  <si>
+    <t>Pallets</t>
+  </si>
+  <si>
+    <t>By Total Shipment</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Cubic Meter Value</t>
+  </si>
+  <si>
+    <t>Cubic Meter Unit</t>
+  </si>
+  <si>
+    <t>Quanity of Package</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -1105,11 +1184,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D6A879-F9B1-485B-8C13-680FF4F1EEDD}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="35.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{A6E691E6-2BF7-4EFE-83B9-86601F866A16}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A93335-62B5-4E24-87C9-0045FC94CAE4}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" customWidth="1"/>
+    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985821FC-359B-4FE3-A126-449CF5164E3B}">
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="17.5546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="46.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="35.33203125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" customWidth="1"/>
+    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,6 +2598,84 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="1"/>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1431,18 +2684,20 @@
     <hyperlink ref="Y2" r:id="rId3" xr:uid="{F71055CB-B010-4548-868A-D5BC13A7F27E}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{1F911404-01FB-401A-805B-B8D17FF5CA02}"/>
     <hyperlink ref="C3" r:id="rId5" display="Hsm@1234" xr:uid="{81A24D70-F61E-491E-91F1-652234783DA3}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{E2C1F211-8971-44B0-825A-45F1C376C767}"/>
+    <hyperlink ref="C4" r:id="rId7" display="Hsm@1234" xr:uid="{D388E952-04C0-4E31-99E7-880EC5F08D42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2433DC77-5512-4F48-8DCB-430F8C18169B}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF1191-DAFD-4FF5-BD80-A7D2E1E0B557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25512F8B-7177-4D4D-9C13-031E8D9D81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData1" sheetId="1" r:id="rId1"/>
-    <sheet name="QACustomerTestData" sheetId="4" r:id="rId2"/>
-    <sheet name="QAProviderTestData" sheetId="5" r:id="rId3"/>
+    <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="QAFCLCustomerTestData" sheetId="4" r:id="rId2"/>
+    <sheet name="QAFCLProviderTestData" sheetId="5" r:id="rId3"/>
     <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId4"/>
     <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId5"/>
-    <sheet name="PreHubCustomerTestData" sheetId="2" r:id="rId6"/>
-    <sheet name="PreHubProviderTestData" sheetId="3" r:id="rId7"/>
+    <sheet name="PreHubFCLCustomerTestData" sheetId="2" r:id="rId6"/>
+    <sheet name="PreHubFCLProviderTestData" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -913,7 +913,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D6A879-F9B1-485B-8C13-680FF4F1EEDD}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q3"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2283,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25512F8B-7177-4D4D-9C13-031E8D9D81EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212D751-7597-4617-93FA-12B653B223BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="171">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -481,6 +481,60 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Lcl Destuffing</t>
+  </si>
+  <si>
+    <t>Port Handling</t>
+  </si>
+  <si>
+    <t>Rate Per CBM</t>
+  </si>
+  <si>
+    <t>Chargeable CBM</t>
+  </si>
+  <si>
+    <t>TC_QA_LCLSpotRateandBooking_001</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Shipment Status Details</t>
+  </si>
+  <si>
+    <t>Shipment status has updated from in-review to Confirmed</t>
+  </si>
+  <si>
+    <t>Shipment Status2</t>
+  </si>
+  <si>
+    <t>Shipment status has updated from Confirmed to Completed</t>
+  </si>
+  <si>
+    <t>TC_QA_LCLSpotRateandBooking_002</t>
+  </si>
+  <si>
+    <t>Atco</t>
+  </si>
+  <si>
+    <t>Syed Ahsan Abbas</t>
+  </si>
+  <si>
+    <t>3452512522</t>
+  </si>
+  <si>
+    <t>yopmail.com</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Salman bin Abdulaziz</t>
+  </si>
+  <si>
+    <t>845154555</t>
   </si>
 </sst>
 </file>
@@ -560,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -571,6 +625,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1510,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A93335-62B5-4E24-87C9-0045FC94CAE4}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985821FC-359B-4FE3-A126-449CF5164E3B}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,7 +1984,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2019,6 +2074,119 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2040,28 +2208,20 @@
     <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="16.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2075,66 +2235,42 @@
         <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>130</v>
@@ -2149,63 +2285,39 @@
         <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>130</v>
@@ -2217,61 +2329,37 @@
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2283,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2785,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212D751-7597-4617-93FA-12B653B223BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9DD85-2274-4FCB-9826-BAEB0B3F8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="178">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -510,9 +510,6 @@
     <t>Shipment Status2</t>
   </si>
   <si>
-    <t>Shipment status has updated from Confirmed to Completed</t>
-  </si>
-  <si>
     <t>TC_QA_LCLSpotRateandBooking_002</t>
   </si>
   <si>
@@ -535,6 +532,30 @@
   </si>
   <si>
     <t>845154555</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Shipment status has updated from Confirmed to In-Transit</t>
+  </si>
+  <si>
+    <t>Shipment status has updated from In-Transit to Completed</t>
+  </si>
+  <si>
+    <t>Shipment Status Details2</t>
+  </si>
+  <si>
+    <t>Shipment Status3</t>
+  </si>
+  <si>
+    <t>Shipment Status Details3</t>
+  </si>
+  <si>
+    <t>In-Transit</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -625,7 +646,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1242,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D6A879-F9B1-485B-8C13-680FF4F1EEDD}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q3"/>
+    <sheetView topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,7 +1467,7 @@
         <v>134</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>77</v>
@@ -1465,7 +1485,7 @@
         <v>135</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>81</v>
@@ -1819,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985821FC-359B-4FE3-A126-449CF5164E3B}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,7 +2097,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2152,37 +2172,37 @@
         <v>73</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="AL3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>82</v>
@@ -2195,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2216,12 +2236,13 @@
     <col min="11" max="11" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="15" width="48.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2265,10 +2286,16 @@
         <v>161</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>159</v>
+        <v>174</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -2309,13 +2336,19 @@
         <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>162</v>
+      <c r="Q2" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -2356,10 +2389,16 @@
         <v>160</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>162</v>
+      <c r="Q3" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9DD85-2274-4FCB-9826-BAEB0B3F8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82D86E-E610-4E3F-9D52-567719057E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -435,9 +435,6 @@
     <t>2523.1000</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Package Type</t>
   </si>
   <si>
@@ -556,6 +553,15 @@
   </si>
   <si>
     <t>In-Transit</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1424,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
@@ -1463,39 +1469,19 @@
       <c r="U2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1514,7 +1500,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
@@ -1557,26 +1543,43 @@
         <v>73</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{A6E691E6-2BF7-4EFE-83B9-86601F866A16}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1585,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A93335-62B5-4E24-87C9-0045FC94CAE4}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,13 +1729,13 @@
         <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>109</v>
@@ -1797,13 +1800,13 @@
         <v>85</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>109</v>
@@ -1839,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985821FC-359B-4FE3-A126-449CF5164E3B}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,31 +1927,31 @@
         <v>49</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>53</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2019,7 +2022,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
@@ -2043,30 +2046,30 @@
         <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>132</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2112,7 +2115,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
@@ -2136,30 +2139,30 @@
         <v>50</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>132</v>
@@ -2172,37 +2175,37 @@
         <v>73</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AL3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>82</v>
@@ -2217,7 +2220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2256,19 +2259,19 @@
         <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>67</v>
@@ -2280,24 +2283,24 @@
         <v>119</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>130</v>
@@ -2330,27 +2333,27 @@
         <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>130</v>
@@ -2383,22 +2386,22 @@
         <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82D86E-E610-4E3F-9D52-567719057E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="QAFCLCustomerTestData" sheetId="4" r:id="rId2"/>
-    <sheet name="QAFCLProviderTestData" sheetId="5" r:id="rId3"/>
-    <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId4"/>
-    <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId5"/>
-    <sheet name="PreHubFCLCustomerTestData" sheetId="2" r:id="rId6"/>
-    <sheet name="PreHubFCLProviderTestData" sheetId="3" r:id="rId7"/>
+    <sheet name="QAWarehouseing" sheetId="8" r:id="rId2"/>
+    <sheet name="QAFCLCustomerTestData" sheetId="4" r:id="rId3"/>
+    <sheet name="QAFCLProviderTestData" sheetId="5" r:id="rId4"/>
+    <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId5"/>
+    <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId6"/>
+    <sheet name="PreHubFCLCustomerTestData" sheetId="2" r:id="rId7"/>
+    <sheet name="PreHubFCLProviderTestData" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="187">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -558,16 +558,40 @@
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TC_Warehousing_Standard_001</t>
+  </si>
+  <si>
+    <t>Warehousing</t>
+  </si>
+  <si>
+    <t>devhub1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>For Warehouse</t>
+  </si>
+  <si>
+    <t>Rent From Month Year</t>
+  </si>
+  <si>
+    <t>Rent From Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -652,6 +676,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -746,23 +772,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,23 +807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,29 +982,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1239,25 +1231,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{23D436B4-440F-4650-9888-A38B5F7CBD72}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{79D991D9-B464-4F84-9C53-9DC4A3B4430E}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{98A80EB0-498F-4226-854E-8B81518694BA}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{57889517-2CD5-4D24-8A94-1DFF1F77EAEA}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{D06757D8-5C06-4669-B733-4E00B4238AC3}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{DA92846A-04C8-4601-82CB-4DA653DB4B6F}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{1FB9BB43-B913-4209-8F47-B3FE7672526B}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{6FEC4543-2B73-468C-A528-7DDA787BA015}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{A118982B-66CF-4A5F-B5BA-EF488FEADF70}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{98BC87C7-A8CD-447D-9CAF-98ED4108522E}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{0B7E0316-C26B-498E-B087-A2FDF377CC5D}"/>
-    <hyperlink ref="B7" r:id="rId12" xr:uid="{A9B80EC5-4C0E-4898-937C-60B84D3044BB}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{BF917068-13AD-4876-A789-4C68BF1A1215}"/>
-    <hyperlink ref="H3:H7" r:id="rId14" display="ahsan1001@yopmail.com" xr:uid="{BC832DAE-B96B-4C64-AFB2-27039AD86A33}"/>
-    <hyperlink ref="H3" r:id="rId15" xr:uid="{27E40628-D033-45C5-A3CB-68397C618D5D}"/>
-    <hyperlink ref="H5" r:id="rId16" xr:uid="{DBBAA172-D278-4C3E-BFD2-C5C8E5205F43}"/>
-    <hyperlink ref="H4" r:id="rId17" xr:uid="{F2E3F581-C48B-4520-B2FC-3AFC56401EA9}"/>
-    <hyperlink ref="H6" r:id="rId18" xr:uid="{6080AD0F-3EB8-475B-9C07-41DF0AB5A33E}"/>
-    <hyperlink ref="H7" r:id="rId19" xr:uid="{384A093D-9A73-4028-8A45-42D6EC42FF12}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="C4" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="C6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="C7" r:id="rId13"/>
+    <hyperlink ref="H3:H7" r:id="rId14" display="ahsan1001@yopmail.com"/>
+    <hyperlink ref="H3" r:id="rId15"/>
+    <hyperlink ref="H5" r:id="rId16"/>
+    <hyperlink ref="H4" r:id="rId17"/>
+    <hyperlink ref="H6" r:id="rId18"/>
+    <hyperlink ref="H7" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
@@ -1265,51 +1257,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D6A879-F9B1-485B-8C13-680FF4F1EEDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2"/>
+    <col min="16" max="16" width="49" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="242.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="35.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="8">
+        <f ca="1">TODAY()</f>
+        <v>45033</v>
+      </c>
+      <c r="H2" s="9">
+        <f ca="1">DAY(G2)</f>
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
     <col min="17" max="17" width="49" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="35.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="14.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="242.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="35.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1420,11 +1644,13 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>178</v>
+      <c r="E2" s="8">
+        <f ca="1">TODAY()</f>
+        <v>45033</v>
+      </c>
+      <c r="F2" s="9">
+        <f ca="1">DAY(E2+5)</f>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
@@ -1483,7 +1709,7 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -1496,11 +1722,13 @@
       <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>178</v>
+      <c r="E3" s="8">
+        <f ca="1">TODAY()</f>
+        <v>45033</v>
+      </c>
+      <c r="F3" s="9">
+        <f ca="1">DAY(E3+5)</f>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
@@ -1577,6 +1805,261 @@
       </c>
       <c r="AF3" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" customWidth="1"/>
+    <col min="22" max="22" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1584,309 +2067,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A93335-62B5-4E24-87C9-0045FC94CAE4}">
-  <dimension ref="A1:W3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985821FC-359B-4FE3-A126-449CF5164E3B}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.44140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="17.5546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" style="2"/>
-    <col min="24" max="24" width="46.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="35.33203125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="17.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="2"/>
+    <col min="24" max="24" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="242.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.140625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="35.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -2098,7 +2327,7 @@
       <c r="AL2" s="7"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
@@ -2209,199 +2438,6 @@
       </c>
       <c r="AM3" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E211B-04C7-4C09-839A-42A90309B0B4}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="48.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2410,51 +2446,244 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676DAE-0BF2-4D24-BC75-2A18054A06E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="48.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="50.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="242.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="35.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="242.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="35.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -2728,7 +2957,7 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -2809,56 +3038,56 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0D15CC7F-6191-4BB9-8A1D-A47C7FB91198}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Hsm@1234" xr:uid="{10233453-EE73-42A6-BE8D-BEE9E119662E}"/>
-    <hyperlink ref="Y2" r:id="rId3" xr:uid="{F71055CB-B010-4548-868A-D5BC13A7F27E}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{1F911404-01FB-401A-805B-B8D17FF5CA02}"/>
-    <hyperlink ref="C3" r:id="rId5" display="Hsm@1234" xr:uid="{81A24D70-F61E-491E-91F1-652234783DA3}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{E2C1F211-8971-44B0-825A-45F1C376C767}"/>
-    <hyperlink ref="C4" r:id="rId7" display="Hsm@1234" xr:uid="{D388E952-04C0-4E31-99E7-880EC5F08D42}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" display="Hsm@1234"/>
+    <hyperlink ref="Y2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5" display="Hsm@1234"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7" display="Hsm@1234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2433DC77-5512-4F48-8DCB-430F8C18169B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.21875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="36.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2"/>
+    <col min="22" max="22" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +3158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -3000,7 +3229,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -3074,8 +3303,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{89DFA509-1161-42A0-854B-87822CB41FF1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{8B4E6728-2530-4836-9BEE-6400D7B3DD04}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="199">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -108,21 +108,6 @@
   </si>
   <si>
     <t>Karachi, Pakistan</t>
-  </si>
-  <si>
-    <t>ahsan1001@yopmail.com</t>
-  </si>
-  <si>
-    <t>ahsan1002@yopmail.com</t>
-  </si>
-  <si>
-    <t>ahsan1003@yopmail.com</t>
-  </si>
-  <si>
-    <t>ahsan1004@yopmail.com</t>
-  </si>
-  <si>
-    <t>ahsan1005@yopmail.com</t>
   </si>
   <si>
     <t>Search Category</t>
@@ -555,18 +540,6 @@
     <t>In-Transit</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>TC_Warehousing_Standard_001</t>
-  </si>
-  <si>
     <t>Warehousing</t>
   </si>
   <si>
@@ -583,15 +556,75 @@
   </si>
   <si>
     <t>Rent From Day</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>DELIVERY AT PORT</t>
+  </si>
+  <si>
+    <t>GD Number</t>
+  </si>
+  <si>
+    <t>KPPI-HC-751545</t>
+  </si>
+  <si>
+    <t>KPPI-HC-751542</t>
+  </si>
+  <si>
+    <t>GD Month Year</t>
+  </si>
+  <si>
+    <t>GD Day</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>June 2023</t>
+  </si>
+  <si>
+    <t>Rent Until Month Year</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>STANDARD SIZE</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>WEIGHT PER PALLET</t>
+  </si>
+  <si>
+    <t>PALLET</t>
+  </si>
+  <si>
+    <t>TC_QA_ModifySearchRequest_001</t>
+  </si>
+  <si>
+    <t>TC_QA_ModifySearchRequest_002</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,7 +709,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -986,13 +1018,13 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1053,13 +1085,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -1085,13 +1117,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -1117,13 +1149,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1149,13 +1181,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -1181,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -1213,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
@@ -1233,35 +1265,28 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="C3" r:id="rId8"/>
-    <hyperlink ref="C4" r:id="rId9"/>
-    <hyperlink ref="C5" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="C7" r:id="rId13"/>
-    <hyperlink ref="H3:H7" r:id="rId14" display="ahsan1001@yopmail.com"/>
-    <hyperlink ref="H3" r:id="rId15"/>
-    <hyperlink ref="H5" r:id="rId16"/>
-    <hyperlink ref="H4" r:id="rId17"/>
-    <hyperlink ref="H6" r:id="rId18"/>
-    <hyperlink ref="H7" r:id="rId19"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,33 +1299,15 @@
     <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2"/>
-    <col min="16" max="16" width="49" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="242.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="35.28515625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1311,176 +1318,126 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="8">
-        <f ca="1">TODAY()</f>
-        <v>45033</v>
-      </c>
-      <c r="H2" s="9">
-        <f ca="1">DAY(G2)</f>
-        <v>17</v>
+        <v>164</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1466,7 @@
     <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
@@ -1544,96 +1501,96 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1642,58 +1599,56 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="8">
-        <f ca="1">TODAY()</f>
-        <v>45033</v>
-      </c>
-      <c r="F2" s="9">
-        <f ca="1">DAY(E2+5)</f>
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1701,7 +1656,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1711,7 +1666,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1720,91 +1675,89 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8">
-        <f ca="1">TODAY()</f>
-        <v>45033</v>
-      </c>
-      <c r="F3" s="9">
-        <f ca="1">DAY(E3+5)</f>
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1817,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,206 +1813,206 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2071,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2041,7 @@
     <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2126,117 +2079,117 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2245,73 +2198,73 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -2319,7 +2272,7 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -2329,7 +2282,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2338,106 +2291,106 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="AL3" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2447,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,16 +2418,17 @@
     <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="48.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="50.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="33.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="48.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="50.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2485,152 +2439,179 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>172</v>
+      <c r="R3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2694,254 +2675,254 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="R2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -2949,7 +2930,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -2959,67 +2940,67 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -3027,7 +3008,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -3098,206 +3079,206 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="209">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>Karachi, Pakistan</t>
-  </si>
-  <si>
     <t>Search Category</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>Delivery Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliver to port would mean you are responsible to get your cargo delivered to your warehouse. </t>
   </si>
   <si>
     <t>Port of Delivery</t>
@@ -267,33 +261,18 @@
     <t>April 2023</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Shipment Details</t>
   </si>
   <si>
     <t xml:space="preserve">Shipment booking has confirmed </t>
   </si>
   <si>
-    <t>The Market A Company</t>
-  </si>
-  <si>
     <t>Waseem Aslam Najam</t>
   </si>
   <si>
-    <t>waslamnajamahmed123@yopmail.com</t>
-  </si>
-  <si>
     <t>BZSA Y M Ali Shah</t>
   </si>
   <si>
-    <t>bswkaym.shah11051@yopmail.com</t>
-  </si>
-  <si>
-    <t>Latest Starss Trading Pvt Ltd</t>
-  </si>
-  <si>
     <t>Departure Date Month Year</t>
   </si>
   <si>
@@ -357,9 +336,6 @@
     <t>BL Date Day</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>In-Transit Shipment Details</t>
   </si>
   <si>
@@ -393,9 +369,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>TestCase_SpotRateandBooking_003</t>
-  </si>
-  <si>
     <t>Sea Shipment - LCL</t>
   </si>
   <si>
@@ -549,9 +522,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>For Warehouse</t>
-  </si>
-  <si>
     <t>Rent From Month Year</t>
   </si>
   <si>
@@ -582,9 +552,6 @@
     <t>GD Day</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>June 2023</t>
   </si>
   <si>
@@ -609,9 +576,6 @@
     <t>WEIGHT PER PALLET</t>
   </si>
   <si>
-    <t>PALLET</t>
-  </si>
-  <si>
     <t>TC_QA_ModifySearchRequest_001</t>
   </si>
   <si>
@@ -619,6 +583,74 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Rent Until Day</t>
+  </si>
+  <si>
+    <t>BY PALLET</t>
+  </si>
+  <si>
+    <t>Storage Type</t>
+  </si>
+  <si>
+    <t>Dry Storage</t>
+  </si>
+  <si>
+    <t>CUSTOM CLEARANCE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>INSURANCE SERVICES</t>
+  </si>
+  <si>
+    <t>VALUE OF GOODS</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Latest Stars Trading Pvt Ltd</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Saudi Riyal ( SAR )</t>
+  </si>
+  <si>
+    <t>SAR 3,749.91</t>
+  </si>
+  <si>
+    <t>Custom Clearance 
+Assertion</t>
+  </si>
+  <si>
+    <t>Insurance Premium
+Assertion</t>
+  </si>
+  <si>
+    <t>SAR 750.00</t>
+  </si>
+  <si>
+    <t>TC_QA_WarehousingRateandBooking_001</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1117,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -1117,13 +1149,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -1149,13 +1181,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1181,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -1213,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -1245,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
@@ -1283,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,15 +1331,24 @@
     <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="11" width="19.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1318,125 +1359,289 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>105</v>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1449,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,96 +1706,96 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1599,56 +1804,56 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1656,7 +1861,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1666,7 +1871,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1675,89 +1880,89 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AE3" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -1813,206 +2018,206 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="S1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2079,117 +2284,117 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AE1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AH1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2198,73 +2403,73 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -2272,7 +2477,7 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -2282,7 +2487,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2291,106 +2496,106 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2439,179 +2644,179 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2621,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2845,7 @@
     <col min="9" max="9" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
@@ -2659,7 +2864,7 @@
     <col min="28" max="28" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38" style="2" customWidth="1"/>
     <col min="32" max="32" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.85546875" style="2"/>
   </cols>
@@ -2675,360 +2880,279 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AA3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2" display="Hsm@1234"/>
-    <hyperlink ref="Y2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5" display="Hsm@1234"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7" display="Hsm@1234"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4" display="Hsm@1234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3036,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,206 +3203,206 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="S1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserCreationTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="QAWarehouseing" sheetId="8" r:id="rId2"/>
-    <sheet name="QAFCLCustomerTestData" sheetId="4" r:id="rId3"/>
-    <sheet name="QAFCLProviderTestData" sheetId="5" r:id="rId4"/>
-    <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId5"/>
-    <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId6"/>
-    <sheet name="PreHubFCLCustomerTestData" sheetId="2" r:id="rId7"/>
-    <sheet name="PreHubFCLProviderTestData" sheetId="3" r:id="rId8"/>
+    <sheet name="QAWarehousing-DFF" sheetId="8" r:id="rId2"/>
+    <sheet name="QAWarehousing-Provider" sheetId="10" r:id="rId3"/>
+    <sheet name="QAFCLCustomerTestData" sheetId="4" r:id="rId4"/>
+    <sheet name="QAFCLProviderTestData" sheetId="5" r:id="rId5"/>
+    <sheet name="QACustomerLCLTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="QAProviderLCLTestData" sheetId="7" r:id="rId7"/>
+    <sheet name="PreHubFCLCustomerTestData" sheetId="2" r:id="rId8"/>
+    <sheet name="PreHubFCLShanFoodsTestData" sheetId="9" r:id="rId9"/>
+    <sheet name="PreHubFCLProviderTestData" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="333">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -348,9 +350,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>acme@hashmove.com</t>
-  </si>
-  <si>
     <t>123456-7</t>
   </si>
   <si>
@@ -384,9 +383,6 @@
     <t>Super Star</t>
   </si>
   <si>
-    <t>Waseem Alam</t>
-  </si>
-  <si>
     <t>M Ali Shah</t>
   </si>
   <si>
@@ -516,9 +512,6 @@
     <t>Warehousing</t>
   </si>
   <si>
-    <t>devhub1@yopmail.com</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -531,9 +524,6 @@
     <t>28</t>
   </si>
   <si>
-    <t>May 2023</t>
-  </si>
-  <si>
     <t>DELIVERY AT PORT</t>
   </si>
   <si>
@@ -552,9 +542,6 @@
     <t>GD Day</t>
   </si>
   <si>
-    <t>June 2023</t>
-  </si>
-  <si>
     <t>Rent Until Month Year</t>
   </si>
   <si>
@@ -576,15 +563,6 @@
     <t>WEIGHT PER PALLET</t>
   </si>
   <si>
-    <t>TC_QA_ModifySearchRequest_001</t>
-  </si>
-  <si>
-    <t>TC_QA_ModifySearchRequest_002</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Warehouse</t>
   </si>
   <si>
@@ -618,25 +596,7 @@
     <t>50000</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Latest Stars Trading Pvt Ltd</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>Saudi Riyal ( SAR )</t>
-  </si>
-  <si>
-    <t>SAR 3,749.91</t>
   </si>
   <si>
     <t>Custom Clearance 
@@ -647,16 +607,439 @@
 Assertion</t>
   </si>
   <si>
-    <t>SAR 750.00</t>
-  </si>
-  <si>
     <t>TC_QA_WarehousingRateandBooking_001</t>
+  </si>
+  <si>
+    <t>TC_QA_WarehousingRateandBooking_002</t>
+  </si>
+  <si>
+    <t>EUROPEAN SIZE</t>
+  </si>
+  <si>
+    <t>TC_QA_WarehousingRateandBooking_003</t>
+  </si>
+  <si>
+    <t>CHEP</t>
+  </si>
+  <si>
+    <t>Frozen Storage</t>
+  </si>
+  <si>
+    <t>Rate Validity Start Date Month Year</t>
+  </si>
+  <si>
+    <t>Rate Validity Start Date Day</t>
+  </si>
+  <si>
+    <t>Rate Validity End Date Month Year</t>
+  </si>
+  <si>
+    <t>Rate Validity End Date Day</t>
+  </si>
+  <si>
+    <t>ke@hashmove.com</t>
+  </si>
+  <si>
+    <t>engro@hashmove.com</t>
+  </si>
+  <si>
+    <t>Engro Corporation</t>
+  </si>
+  <si>
+    <t>Engro</t>
+  </si>
+  <si>
+    <t>Ghias Khan</t>
+  </si>
+  <si>
+    <t>DHL Global</t>
+  </si>
+  <si>
+    <t>Reference Number</t>
+  </si>
+  <si>
+    <t>REF-54154541</t>
+  </si>
+  <si>
+    <t>REF-54154542</t>
+  </si>
+  <si>
+    <t>REF-54154543</t>
+  </si>
+  <si>
+    <t>Truck Category</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>CurtainSide</t>
+  </si>
+  <si>
+    <t>Truck Type</t>
+  </si>
+  <si>
+    <t>0.5 ton</t>
+  </si>
+  <si>
+    <t>12 meters (40 feet)</t>
+  </si>
+  <si>
+    <t>Truck Reg Number</t>
+  </si>
+  <si>
+    <t>TRK-001</t>
+  </si>
+  <si>
+    <t>TRK-002</t>
+  </si>
+  <si>
+    <t>TRK-003</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>YOUR SKU CODE</t>
+  </si>
+  <si>
+    <t>SKU-</t>
+  </si>
+  <si>
+    <t>SKU DESCRIPTION</t>
+  </si>
+  <si>
+    <t>HS CODE</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Weight UOM</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>GROSS WEIGHT</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>NET WEIGHT</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>PACKAGE TYPE ( WHAT'S ON PALLET? )</t>
+  </si>
+  <si>
+    <t>CARTONS</t>
+  </si>
+  <si>
+    <t>UOM / PACKAGE</t>
+  </si>
+  <si>
+    <t>PALLET TYPE</t>
+  </si>
+  <si>
+    <t>PACKAGE / PALLET</t>
+  </si>
+  <si>
+    <t>TOTAL PALLET QTY</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TOTAL PACKAGE QTY</t>
+  </si>
+  <si>
+    <t>TOTAL UOM QTY</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Do you want to add batch number for this sku?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BATCH NUMBER</t>
+  </si>
+  <si>
+    <t>BTHNO</t>
+  </si>
+  <si>
+    <t>PRODUCTION DATE MONTH YEAR</t>
+  </si>
+  <si>
+    <t>PRODUCTION DATE DAY</t>
+  </si>
+  <si>
+    <t>EXPIRY DATE MONTH YEAR</t>
+  </si>
+  <si>
+    <t>EXPIRY DATE DAY</t>
+  </si>
+  <si>
+    <t>Nickel mattes has Weight KG =</t>
+  </si>
+  <si>
+    <t>7501.1000</t>
+  </si>
+  <si>
+    <t>Warehouse Charges 
+Assertion</t>
+  </si>
+  <si>
+    <t>Inbound SKU Added with complete information</t>
+  </si>
+  <si>
+    <t>TRK-004</t>
+  </si>
+  <si>
+    <t>TRK-005</t>
+  </si>
+  <si>
+    <t>TRK-006</t>
+  </si>
+  <si>
+    <t>Outbound SKU Added with complete information</t>
+  </si>
+  <si>
+    <t>Delivery Address</t>
+  </si>
+  <si>
+    <t>Jeddah Saudi Arabia</t>
+  </si>
+  <si>
+    <t>By Pallet</t>
+  </si>
+  <si>
+    <t>Gross Total
+Assertion</t>
+  </si>
+  <si>
+    <t>VAT
+Assertion</t>
+  </si>
+  <si>
+    <t>NET TOTAL
+Assertion</t>
+  </si>
+  <si>
+    <t>TOTAL (PAYABLE)
+Assertion</t>
+  </si>
+  <si>
+    <t>qaautomationhub1@yopmail.com</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>UAE Dirham ( AED )</t>
+  </si>
+  <si>
+    <t>AED 12,000.00</t>
+  </si>
+  <si>
+    <t>AED 3,672.42</t>
+  </si>
+  <si>
+    <t>AED 750.00</t>
+  </si>
+  <si>
+    <t>AED 16,422.42</t>
+  </si>
+  <si>
+    <t>EMPTY WOODEN PALLETS</t>
+  </si>
+  <si>
+    <t>AED 75.00</t>
+  </si>
+  <si>
+    <t>Services Name</t>
+  </si>
+  <si>
+    <t>A/C Storage</t>
+  </si>
+  <si>
+    <t>AED 22,500.00</t>
+  </si>
+  <si>
+    <t>AED 5,508.63</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>AED 9,000.00</t>
+  </si>
+  <si>
+    <t>AED 37,008.63</t>
+  </si>
+  <si>
+    <t>AED 1,850.43</t>
+  </si>
+  <si>
+    <t>AED 38,859.06</t>
+  </si>
+  <si>
+    <t>AED 60.00</t>
+  </si>
+  <si>
+    <t>Assertion on VALUE EXCLUDING VAT on Service</t>
+  </si>
+  <si>
+    <t>RECEIVING BY PALLET</t>
+  </si>
+  <si>
+    <t>Assertion on TOTAL AMOUNT in SKU Details grid</t>
+  </si>
+  <si>
+    <t>Assertion on NET TOTAL In bound Shipment</t>
+  </si>
+  <si>
+    <t>AED 141.75</t>
+  </si>
+  <si>
+    <t>AED 50.00</t>
+  </si>
+  <si>
+    <t>AED 131.25</t>
+  </si>
+  <si>
+    <t>AED 90.00</t>
+  </si>
+  <si>
+    <t>AED 135.00</t>
+  </si>
+  <si>
+    <t>DISPATCHING BY PALLET</t>
+  </si>
+  <si>
+    <t>AED 236.25</t>
+  </si>
+  <si>
+    <t>Assertion on NET TOTAL Out bound Shipment</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AED 7,344.84</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>AED 8,400.00</t>
+  </si>
+  <si>
+    <t>AED 1,050.00</t>
+  </si>
+  <si>
+    <t>AED 16,794.84</t>
+  </si>
+  <si>
+    <t>AED 839.74</t>
+  </si>
+  <si>
+    <t>AED 17,634.58</t>
+  </si>
+  <si>
+    <t>100.25</t>
+  </si>
+  <si>
+    <t>90.75</t>
+  </si>
+  <si>
+    <t>AED 55.00</t>
+  </si>
+  <si>
+    <t>AED 100.00</t>
+  </si>
+  <si>
+    <t>AED 162.75</t>
+  </si>
+  <si>
+    <t>AED 95.00</t>
+  </si>
+  <si>
+    <t>AED 152.25</t>
+  </si>
+  <si>
+    <t>TC_PREHUB_ShanFoodsFCLSpotRateandBooking_001</t>
+  </si>
+  <si>
+    <t>shanfoods@hashmove.com</t>
+  </si>
+  <si>
+    <t>2001.9010</t>
+  </si>
+  <si>
+    <t>Origin Port</t>
+  </si>
+  <si>
+    <t>Destination Port</t>
+  </si>
+  <si>
+    <t>Reference No</t>
+  </si>
+  <si>
+    <t>REF-2023-</t>
+  </si>
+  <si>
+    <t>AED 2,463.36</t>
+  </si>
+  <si>
+    <t>AED 18,885.78</t>
+  </si>
+  <si>
+    <t>Status Details</t>
+  </si>
+  <si>
+    <t>Shipment status has updated to Confirmed….</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Shipment status has updated to Completed…..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="d"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -725,12 +1108,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -742,6 +1138,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1117,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -1149,13 +1550,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -1181,13 +1582,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1213,13 +1614,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -1245,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -1277,13 +1678,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
@@ -1313,25 +1714,343 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="22.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="49" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15" style="2" customWidth="1"/>
+    <col min="26" max="26" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="K2" s="10">
+        <f ca="1">DAY(J2)</f>
+        <v>25</v>
+      </c>
+      <c r="L2" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="M2" s="10">
+        <f ca="1">DAY(L2)</f>
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="9">
+        <f ca="1">TODAY()+2</f>
+        <v>45072</v>
+      </c>
+      <c r="Q2" s="10">
+        <f ca="1">DAY(P2)</f>
+        <v>26</v>
+      </c>
+      <c r="R2" s="9">
+        <f ca="1">TODAY()+4</f>
+        <v>45074</v>
+      </c>
+      <c r="S2" s="10">
+        <f ca="1">DAY(R2)</f>
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="9">
+        <f ca="1">TODAY()</f>
+        <v>45070</v>
+      </c>
+      <c r="Y2" s="10">
+        <f ca="1">DAY(X2)</f>
+        <v>24</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="K3" s="10">
+        <f ca="1">DAY(J3)</f>
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="M3" s="10">
+        <f ca="1">DAY(L3)</f>
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="9">
+        <f ca="1">TODAY()+2</f>
+        <v>45072</v>
+      </c>
+      <c r="Q3" s="10">
+        <f ca="1">DAY(P3)</f>
+        <v>26</v>
+      </c>
+      <c r="R3" s="9">
+        <f ca="1">TODAY()+4</f>
+        <v>45074</v>
+      </c>
+      <c r="S3" s="10">
+        <f ca="1">DAY(R3)</f>
+        <v>28</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="9">
+        <f ca="1">TODAY()</f>
+        <v>45070</v>
+      </c>
+      <c r="Y3" s="10">
+        <f ca="1">DAY(X3)</f>
+        <v>24</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="BC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="19.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="19.42578125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1343,12 +2062,53 @@
     <col min="20" max="20" width="13.140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="20.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="24.42578125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="23" max="23" width="24.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" style="2" customWidth="1"/>
+    <col min="25" max="29" width="24.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="22.85546875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="51.7109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="23.42578125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="20.42578125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="23.140625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="32.85546875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="18.28515625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="22.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.140625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="20.7109375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="29.5703125" style="2" customWidth="1"/>
+    <col min="52" max="52" width="28.85546875" style="2" customWidth="1"/>
+    <col min="53" max="53" width="32.28515625" style="2" customWidth="1"/>
+    <col min="54" max="60" width="31.7109375" style="2" customWidth="1"/>
+    <col min="61" max="61" width="20.7109375" style="2" customWidth="1"/>
+    <col min="62" max="62" width="20.140625" style="2" customWidth="1"/>
+    <col min="63" max="63" width="22" style="2" customWidth="1"/>
+    <col min="64" max="65" width="22.7109375" style="2" customWidth="1"/>
+    <col min="66" max="66" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.42578125" style="2" customWidth="1"/>
+    <col min="72" max="72" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.85546875" style="2" customWidth="1"/>
+    <col min="74" max="74" width="24.140625" style="2" customWidth="1"/>
+    <col min="75" max="75" width="28.5703125" style="2" customWidth="1"/>
+    <col min="76" max="76" width="19.7109375" style="2" customWidth="1"/>
+    <col min="77" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,46 +2122,46 @@
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>44</v>
@@ -1410,69 +2170,229 @@
         <v>45</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>201</v>
+        <v>275</v>
+      </c>
+      <c r="G2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="H2" s="10">
+        <f ca="1">DAY(G2)</f>
+        <v>25</v>
+      </c>
+      <c r="I2" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="J2" s="10">
+        <f ca="1">DAY(I2)</f>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>43</v>
@@ -1484,69 +2404,233 @@
         <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>207</v>
+        <v>278</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="AZ2" s="10">
+        <f ca="1">DAY(AY2)</f>
+        <v>25</v>
+      </c>
+      <c r="BA2" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="BB2" s="10">
+        <f ca="1">DAY(BA2)</f>
+        <v>23</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS2" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>201</v>
+        <v>275</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G4" ca="1" si="0">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H4" ca="1" si="1">DAY(G3)</f>
+        <v>25</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I4" ca="1" si="2">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J4" ca="1" si="3">DAY(I3)</f>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>43</v>
@@ -1555,72 +2639,236 @@
         <v>49</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>207</v>
+        <v>286</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY3" s="9">
+        <f t="shared" ref="AY3:AY4" ca="1" si="4">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="AZ3" s="10">
+        <f t="shared" ref="AZ3:AZ4" ca="1" si="5">DAY(AY3)</f>
+        <v>25</v>
+      </c>
+      <c r="BA3" s="9">
+        <f t="shared" ref="BA3:BA4" ca="1" si="6">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="BB3" s="10">
+        <f t="shared" ref="BB3:BB4" ca="1" si="7">DAY(BA3)</f>
+        <v>23</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>201</v>
+        <v>275</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45071</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>45100</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>43</v>
@@ -1629,19 +2877,179 @@
         <v>49</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>207</v>
+      <c r="AS4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY4" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>45071</v>
+      </c>
+      <c r="AZ4" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="BA4" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>45100</v>
+      </c>
+      <c r="BB4" s="10">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS4" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1652,16 +3060,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1748,7 +3274,7 @@
         <v>61</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>63</v>
@@ -1798,19 +3324,21 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>204</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
+      <c r="E2" s="9">
+        <f ca="1">TODAY()+6</f>
+        <v>45076</v>
+      </c>
+      <c r="F2" s="10">
+        <f ca="1">DAY(E2)</f>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -1828,7 +3356,7 @@
         <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
@@ -1843,7 +3371,7 @@
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
@@ -1853,7 +3381,7 @@
         <v>66</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1861,7 +3389,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1874,19 +3402,21 @@
         <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>204</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>114</v>
+      <c r="E3" s="9">
+        <f ca="1">TODAY()+6</f>
+        <v>45076</v>
+      </c>
+      <c r="F3" s="10">
+        <f ca="1">DAY(E3)</f>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>31</v>
@@ -1904,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>43</v>
@@ -1919,7 +3449,7 @@
         <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
@@ -1929,37 +3459,37 @@
         <v>66</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="AC3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>75</v>
@@ -1971,12 +3501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,24 +3520,25 @@
     <col min="7" max="7" width="8.85546875" style="2"/>
     <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="2"/>
+    <col min="10" max="13" width="22.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15" style="2" customWidth="1"/>
+    <col min="26" max="26" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2036,57 +3567,69 @@
         <v>60</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
@@ -2106,58 +3649,80 @@
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="K2" s="10">
+        <f ca="1">DAY(J2)</f>
+        <v>25</v>
+      </c>
+      <c r="L2" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="M2" s="10">
+        <f ca="1">DAY(L2)</f>
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="Q2" s="10">
+        <f ca="1">DAY(P2)</f>
+        <v>25</v>
+      </c>
+      <c r="R2" s="9">
+        <f ca="1">TODAY()+3</f>
+        <v>45073</v>
+      </c>
+      <c r="S2" s="10">
+        <f ca="1">DAY(R2)</f>
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="Y2" s="10">
+        <f ca="1">DAY(X2)</f>
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
@@ -2177,46 +3742,68 @@
       <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="K3" s="10">
+        <f ca="1">DAY(J3)</f>
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <f ca="1">TODAY()+30</f>
+        <v>45100</v>
+      </c>
+      <c r="M3" s="10">
+        <f ca="1">DAY(L3)</f>
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="Q3" s="10">
+        <f ca="1">DAY(P3)</f>
+        <v>25</v>
+      </c>
+      <c r="R3" s="9">
+        <f ca="1">TODAY()+3</f>
+        <v>45073</v>
+      </c>
+      <c r="S3" s="10">
+        <f ca="1">DAY(R3)</f>
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="Y3" s="10">
+        <f ca="1">DAY(X3)</f>
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2225,7 +3812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
@@ -2314,31 +3901,31 @@
         <v>42</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>46</v>
@@ -2347,7 +3934,7 @@
         <v>61</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>63</v>
@@ -2394,7 +3981,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2403,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
@@ -2415,7 +4002,7 @@
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -2427,39 +4014,39 @@
         <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
@@ -2477,7 +4064,7 @@
       <c r="AF2" s="6"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -2487,7 +4074,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2496,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
@@ -2508,7 +4095,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -2520,39 +4107,39 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
@@ -2562,37 +4149,37 @@
         <v>66</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AF3" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="AL3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>75</v>
@@ -2603,7 +4190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -2647,19 +4234,19 @@
         <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>60</v>
@@ -2668,42 +4255,42 @@
         <v>61</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>106</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>51</v>
@@ -2730,42 +4317,42 @@
         <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>107</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
@@ -2792,31 +4379,31 @@
         <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>107</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2824,12 +4411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +4509,7 @@
         <v>61</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>63</v>
@@ -2972,19 +4559,21 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>98</v>
+      <c r="E2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="F2" s="10">
+        <f ca="1">DAY(E2)</f>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -3002,7 +4591,7 @@
         <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
@@ -3017,10 +4606,10 @@
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>64</v>
@@ -3037,7 +4626,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -3050,19 +4639,21 @@
         <v>92</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
+      <c r="E3" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="F3" s="10">
+        <f ca="1">DAY(E3)</f>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>31</v>
@@ -3080,7 +4671,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>43</v>
@@ -3095,7 +4686,7 @@
         <v>48</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>98</v>
@@ -3113,19 +4704,19 @@
         <v>81</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>82</v>
@@ -3137,7 +4728,7 @@
         <v>74</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>75</v>
@@ -3146,53 +4737,44 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="Hsm@1234"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4" display="Hsm@1234"/>
+    <hyperlink ref="C2" r:id="rId1" display="Hsm@1234"/>
+    <hyperlink ref="C3" r:id="rId2" display="Hsm@1234"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" customWidth="1"/>
-    <col min="22" max="22" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="118.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3202,215 +4784,104 @@
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>106</v>
+      <c r="P1" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>321</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="9">
+        <f ca="1">TODAY()+1</f>
+        <v>45071</v>
+      </c>
+      <c r="F2" s="10">
+        <f ca="1">DAY(E2)</f>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" display="Hsm@1234"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>